--- a/biology/Botanique/Beurré_Giffard/Beurré_Giffard.xlsx
+++ b/biology/Botanique/Beurré_Giffard/Beurré_Giffard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beurré Giffard est une variété traditionnelle de poire "beurré" d'été à chair fondante.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cultivar a été obtenu par un semis de hasard en 1825, découvert par Nicolas Giffard, cultivateur à Fouassières, La Garenne-Saint-Nicolas, près d'Angers[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cultivar a été obtenu par un semis de hasard en 1825, découvert par Nicolas Giffard, cultivateur à Fouassières, La Garenne-Saint-Nicolas, près d'Angers.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Giffard.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Port nettement divergent, vigueur moyenne, se greffe sur cognassier ainsi que sur franc pour l'établissement en tige[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Port nettement divergent, vigueur moyenne, se greffe sur cognassier ainsi que sur franc pour l'établissement en tige.
 </t>
         </is>
       </c>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,9 +621,11 @@
           <t>Époque de floraison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moyenne saison, cependant sa fleur est sensible aux petites gelées et aux brouillards[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moyenne saison, cependant sa fleur est sensible aux petites gelées et aux brouillards.
 </t>
         </is>
       </c>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,13 +654,15 @@
           <t>Pollinisateurs recommandés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>"Bergamote Esperen".
 "Précoce de Trévoux".
 "Beurré Durondeau".
 "Dr. Jules Guyot".
-"Williams"[1].</t>
+"Williams".</t>
         </is>
       </c>
     </row>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,9 +690,11 @@
           <t>Mise à fruit</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Longue à se manifester, surtout sur le franc[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longue à se manifester, surtout sur le franc.
 </t>
         </is>
       </c>
@@ -681,7 +705,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -699,9 +723,11 @@
           <t>Productivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La productivité de cette variété est satisfaisante[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La productivité de cette variété est satisfaisante.
 </t>
         </is>
       </c>
@@ -712,7 +738,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -732,17 +758,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forme et calibre
-Sa forme est gibbeuse et ventrue, d'une grosseur moyenne ; il est  porté par un pédoncule court implanté au sommet, dans une cavité presque nulle[1].
-Épiderme à maturité
-Lorsqu'elle est mûre, la poire est lisse, jaune verdâtre et lavée de rouge terne à l'insolation.
-Sa chair est blanche, très fine, fondante, sucrée, acidulée et parfumée[1].
-Date de récolte
-Aux environs de juillet-début août, la récolte s'effectue[1].
-Maturité naturelle de consommation
-Une entre-cueillette permet la récolte des fruits au fur et à mesure de leur maturité dans les limites précitées[1].
-Conservation
-En raison de son blettissement rapide, la conservation s'en trouve limitée[1].
+          <t>Forme et calibre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa forme est gibbeuse et ventrue, d'une grosseur moyenne ; il est  porté par un pédoncule court implanté au sommet, dans une cavité presque nulle.
 </t>
         </is>
       </c>
@@ -753,7 +775,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -768,17 +790,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Appréciations générales</t>
+          <t>Fruit</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ennemis
-Carpocapse des fruits.
-Résistance au transport et manipulations
-Peu satisfaisante.
-Usages particuliers
-Principalement utilisé pour la confiserie[1].
+          <t>Épiderme à maturité</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'elle est mûre, la poire est lisse, jaune verdâtre et lavée de rouge terne à l'insolation.
+Sa chair est blanche, très fine, fondante, sucrée, acidulée et parfumée.
 </t>
         </is>
       </c>
@@ -789,7 +813,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Giffard</t>
+          <t>Beurré_Giffard</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -804,12 +828,235 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Date de récolte</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux environs de juillet-début août, la récolte s'effectue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Beurré_Giffard</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Giffard</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Maturité naturelle de consommation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une entre-cueillette permet la récolte des fruits au fur et à mesure de leur maturité dans les limites précitées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Beurré_Giffard</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Giffard</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison de son blettissement rapide, la conservation s'en trouve limitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Beurré_Giffard</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Giffard</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ennemis</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Carpocapse des fruits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Beurré_Giffard</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Giffard</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Résistance au transport et manipulations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu satisfaisante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Beurré_Giffard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Giffard</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Usages particuliers</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Principalement utilisé pour la confiserie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Beurré_Giffard</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Giffard</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Observations et culture</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cultivé en haute tige ou demi-tige sur franc, sa mise à fruit est longue à établir[1].
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cultivé en haute tige ou demi-tige sur franc, sa mise à fruit est longue à établir.
 </t>
         </is>
       </c>
